--- a/sample_efficiency/sample_eff_benchmark.xlsx
+++ b/sample_efficiency/sample_eff_benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Desktop\results\sample_efficiency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C0A7DE-5FF4-4146-BFAF-47E1B9DC786E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A750D8A-545F-4969-B12C-8D7E9F0F678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Ray: </t>
   </si>
@@ -39,10 +39,19 @@
     <t>BlackJack</t>
   </si>
   <si>
-    <t>Laptop (5000 rounds)</t>
-  </si>
-  <si>
     <t>AWS (10000 rounds)</t>
+  </si>
+  <si>
+    <t>Pendulum</t>
+  </si>
+  <si>
+    <t>34.30 seconds</t>
+  </si>
+  <si>
+    <t>23.65 seconds</t>
+  </si>
+  <si>
+    <t>47.11 seconds</t>
   </si>
 </sst>
 </file>
@@ -360,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:C7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,12 +380,12 @@
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -384,54 +393,27 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>49.34</v>
-      </c>
-      <c r="C2">
-        <v>28.83</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>34.090000000000003</v>
-      </c>
-      <c r="C3">
-        <v>35.700000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>21.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>31.53</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/sample_efficiency/sample_eff_benchmark.xlsx
+++ b/sample_efficiency/sample_eff_benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Desktop\results\sample_efficiency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A750D8A-545F-4969-B12C-8D7E9F0F678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2257A741-3FBF-4252-A329-BC05219552F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13635" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Ray: </t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>47.11 seconds</t>
+  </si>
+  <si>
+    <t>35.44 seconds</t>
+  </si>
+  <si>
+    <t>33.04 seconds</t>
+  </si>
+  <si>
+    <t>32.88 seconds</t>
   </si>
 </sst>
 </file>
@@ -372,7 +381,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,6 +410,15 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
